--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\x875284\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C58B69FE-FCE9-424D-BF7E-DBC80B89F566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8CC8D2-2441-4589-B15C-622B0C11116F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10460" xr2:uid="{E7C00D89-9D6E-47E2-A445-4D28452D6967}"/>
   </bookViews>
@@ -57,8 +57,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -80,7 +88,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -233,11 +241,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,6 +272,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD7C828-3F6F-44A2-99CA-A213ACBEA0EF}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -879,7 +898,7 @@
       <c r="A25" s="12"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="2"/>
       <c r="F25" s="7"/>
       <c r="G25" s="11"/>
@@ -996,168 +1015,304 @@
       <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="7"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="7"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="14"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="8"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
+    <row r="39" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="14"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="7"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
+    <row r="42" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="14"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="8"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
+    <row r="43" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="14"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
       <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
       <c r="J45" s="11"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
+    <row r="46" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="14"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="8"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
